--- a/src/test/resources/com/sirion/xls/Child SL Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Child SL Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Y</t>
   </si>
@@ -471,7 +471,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -531,9 +531,7 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
